--- a/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_60/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_60/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.057341598</t>
+          <t>0.07351332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.1600419</t>
+          <t>0.16822691</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.06671787</t>
+          <t>0.057512276</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.16570455</t>
+          <t>0.14393607</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.1925046</t>
+          <t>0.18794297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.35248116</t>
+          <t>0.3455809</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.14330617</t>
+          <t>0.1403265</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.29170686</t>
+          <t>0.28761235</t>
         </is>
       </c>
       <c r="D5" t="n">
